--- a/data/1.xlsx
+++ b/data/1.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LIU\Desktop\tsp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3B8E20-29D5-48F9-BAD8-7DF680188784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B1A989-6153-4C96-8114-138B0C898375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LKH" sheetId="1" r:id="rId1"/>
-    <sheet name="concorde" sheetId="6" r:id="rId2"/>
+    <sheet name="Concorde" sheetId="6" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">concorde!$A$1:$AL$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Concorde!$A$1:$AL$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LKH!$A$1:$AJ$197</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="21">
   <si>
     <t>de</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,18 +86,6 @@
   </si>
   <si>
     <t>index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>de-com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seg-com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nei-com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1807,7 +1795,7 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>concorde!$A:$A</c:f>
+              <c:f>Concorde!$A:$A</c:f>
               <c:strCache>
                 <c:ptCount val="197"/>
                 <c:pt idx="0">
@@ -2406,7 +2394,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>concorde!$L:$L</c:f>
+              <c:f>Concorde!$L:$L</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048576"/>
@@ -4757,7 +4745,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AJ197"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>
@@ -4782,7 +4770,7 @@
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
@@ -4791,7 +4779,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>2</v>
@@ -4800,7 +4788,7 @@
         <v>8</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>4</v>
@@ -4812,7 +4800,7 @@
         <v>6</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>1</v>
@@ -4821,7 +4809,7 @@
         <v>7</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>2</v>
@@ -4830,7 +4818,7 @@
         <v>8</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>5</v>
@@ -4842,7 +4830,7 @@
         <v>6</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>1</v>
@@ -4851,7 +4839,7 @@
         <v>7</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>2</v>
@@ -4860,7 +4848,7 @@
         <v>8</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>10</v>
@@ -24086,8 +24074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E81CF90-795B-4F52-9D1F-60AD0EEB2A79}">
   <dimension ref="A1:AJ197"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -24143,7 +24131,7 @@
         <v>6</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>1</v>
@@ -24152,7 +24140,7 @@
         <v>7</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>2</v>
@@ -24161,7 +24149,7 @@
         <v>8</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>5</v>
@@ -24173,7 +24161,7 @@
         <v>6</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>1</v>
@@ -24182,7 +24170,7 @@
         <v>7</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>2</v>
@@ -24191,7 +24179,7 @@
         <v>8</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>9</v>
